--- a/Preprocessing/gcm-serriated.xlsx
+++ b/Preprocessing/gcm-serriated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GCParallel\Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE47FB-586E-4D85-B1D0-D71FFE48276F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7818F0-FAA9-469B-8F89-83EDF17A5C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,8 +514,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,538 +886,538 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
+      <c r="E1" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="H1">
+      <c r="J1" s="1">
         <v>13</v>
       </c>
-      <c r="I1">
+      <c r="K1" s="1">
         <v>4</v>
       </c>
-      <c r="J1">
+      <c r="L1" s="1">
         <v>6</v>
       </c>
-      <c r="K1">
+      <c r="M1" s="1">
         <v>7</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.65</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.83</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G2" s="1">
         <v>-0.1</v>
       </c>
-      <c r="F2">
+      <c r="H2" s="1">
         <v>-0.2</v>
       </c>
-      <c r="G2">
+      <c r="I2" s="1">
         <v>-0.18</v>
       </c>
-      <c r="H2">
+      <c r="J2" s="1">
         <v>-0.18</v>
       </c>
-      <c r="I2">
+      <c r="K2" s="1">
         <v>0.24</v>
       </c>
-      <c r="J2">
+      <c r="L2" s="1">
         <v>0.25</v>
       </c>
-      <c r="K2">
+      <c r="M2" s="1">
         <v>0.15</v>
-      </c>
-      <c r="L2">
-        <v>0.81</v>
-      </c>
-      <c r="M2">
-        <v>0.38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.65</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.54</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
         <v>-0.04</v>
       </c>
-      <c r="F3">
+      <c r="H3" s="1">
         <v>-0.12</v>
       </c>
-      <c r="G3">
+      <c r="I3" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="H3">
+      <c r="J3" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="1">
         <v>0.38</v>
       </c>
-      <c r="J3">
+      <c r="L3" s="1">
         <v>0.08</v>
       </c>
-      <c r="K3">
+      <c r="M3" s="1">
         <v>0.47</v>
-      </c>
-      <c r="L3">
-        <v>0.63</v>
-      </c>
-      <c r="M3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.83</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.54</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="H4" s="1">
         <v>-0.13</v>
       </c>
-      <c r="G4">
+      <c r="I4" s="1">
         <v>-0.09</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="1">
         <v>-0.09</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="1">
         <v>0.23</v>
       </c>
-      <c r="J4">
+      <c r="L4" s="1">
         <v>0.26</v>
       </c>
-      <c r="K4">
+      <c r="M4" s="1">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.71</v>
-      </c>
-      <c r="M4">
-        <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="I5" s="1">
         <v>-0.1</v>
       </c>
-      <c r="C5">
-        <v>-0.04</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.76</v>
-      </c>
-      <c r="G5">
-        <v>0.95</v>
-      </c>
-      <c r="H5">
-        <v>0.95</v>
-      </c>
-      <c r="I5">
-        <v>-0.09</v>
-      </c>
-      <c r="J5">
-        <v>0.16</v>
-      </c>
-      <c r="K5">
-        <v>0.18</v>
-      </c>
-      <c r="L5">
-        <v>-0.06</v>
-      </c>
-      <c r="M5">
-        <v>0.13</v>
+      <c r="J5" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-0.2</v>
-      </c>
-      <c r="C6">
-        <v>-0.12</v>
-      </c>
-      <c r="D6">
-        <v>-0.13</v>
-      </c>
-      <c r="E6">
-        <v>0.76</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.75</v>
-      </c>
-      <c r="H6">
-        <v>0.75</v>
-      </c>
-      <c r="I6">
-        <v>-0.08</v>
-      </c>
-      <c r="J6">
-        <v>-0.04</v>
-      </c>
-      <c r="K6">
-        <v>-0.08</v>
-      </c>
-      <c r="L6">
-        <v>-0.15</v>
-      </c>
-      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="H6" s="1">
         <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-0.18</v>
-      </c>
-      <c r="C7">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="1">
         <v>-0.09</v>
       </c>
-      <c r="E7">
-        <v>0.95</v>
-      </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>-0.06</v>
-      </c>
-      <c r="J7">
-        <v>-0.03</v>
-      </c>
-      <c r="K7">
-        <v>-0.06</v>
-      </c>
-      <c r="L7">
-        <v>-0.1</v>
-      </c>
-      <c r="M7">
-        <v>-0.05</v>
+      <c r="L7" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>-0.18</v>
-      </c>
-      <c r="C8">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="D8">
-        <v>-0.09</v>
-      </c>
-      <c r="E8">
-        <v>0.95</v>
-      </c>
-      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.75</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-0.06</v>
-      </c>
-      <c r="J8">
-        <v>-0.03</v>
-      </c>
-      <c r="K8">
-        <v>-0.06</v>
-      </c>
-      <c r="L8">
-        <v>-0.1</v>
-      </c>
-      <c r="M8">
-        <v>-0.05</v>
+      <c r="J8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.24</v>
-      </c>
-      <c r="C9">
-        <v>0.38</v>
-      </c>
-      <c r="D9">
-        <v>0.23</v>
-      </c>
-      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D9" s="1">
         <v>-0.09</v>
       </c>
-      <c r="F9">
-        <v>-0.08</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>-0.06</v>
       </c>
-      <c r="H9">
+      <c r="L9" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="M9" s="1">
         <v>-0.06</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>-0.05</v>
-      </c>
-      <c r="K9">
-        <v>-0.1</v>
-      </c>
-      <c r="L9">
-        <v>0.2</v>
-      </c>
-      <c r="M9">
-        <v>-0.01</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0.25</v>
-      </c>
-      <c r="C10">
-        <v>0.08</v>
-      </c>
-      <c r="D10">
-        <v>0.26</v>
-      </c>
-      <c r="E10">
-        <v>0.16</v>
-      </c>
-      <c r="F10">
-        <v>-0.04</v>
-      </c>
-      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="L10" s="1">
         <v>-0.03</v>
       </c>
-      <c r="H10">
-        <v>-0.03</v>
-      </c>
-      <c r="I10">
-        <v>-0.05</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.27</v>
-      </c>
-      <c r="L10">
-        <v>0.08</v>
-      </c>
-      <c r="M10">
-        <v>0.12</v>
+      <c r="M10" s="1">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0.15</v>
-      </c>
-      <c r="C11">
-        <v>0.47</v>
-      </c>
-      <c r="D11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.18</v>
-      </c>
-      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="H11" s="1">
         <v>-0.08</v>
       </c>
-      <c r="G11">
+      <c r="I11" s="1">
         <v>-0.06</v>
       </c>
-      <c r="H11">
+      <c r="J11" s="1">
         <v>-0.06</v>
       </c>
-      <c r="I11">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="M11" s="1">
         <v>-0.1</v>
-      </c>
-      <c r="J11">
-        <v>0.27</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.17</v>
-      </c>
-      <c r="M11">
-        <v>0.53</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0.81</v>
-      </c>
-      <c r="C12">
-        <v>0.63</v>
-      </c>
-      <c r="D12">
-        <v>0.71</v>
-      </c>
-      <c r="E12">
-        <v>-0.06</v>
-      </c>
-      <c r="F12">
-        <v>-0.15</v>
-      </c>
-      <c r="G12">
-        <v>-0.1</v>
-      </c>
-      <c r="H12">
-        <v>-0.1</v>
-      </c>
-      <c r="I12">
-        <v>0.2</v>
-      </c>
-      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.08</v>
       </c>
-      <c r="K12">
-        <v>0.17</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.4</v>
+      <c r="D12" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.38</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>0.66</v>
-      </c>
-      <c r="E13">
-        <v>0.13</v>
-      </c>
-      <c r="F13">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G13">
-        <v>-0.05</v>
-      </c>
-      <c r="H13">
-        <v>-0.05</v>
-      </c>
-      <c r="I13">
-        <v>-0.01</v>
-      </c>
-      <c r="J13">
-        <v>0.12</v>
-      </c>
-      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.53</v>
       </c>
-      <c r="L13">
-        <v>0.4</v>
-      </c>
-      <c r="M13">
+      <c r="G13" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="M13" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:M13">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
@@ -1424,7 +1427,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1434,7 +1437,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1444,7 +1447,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Preprocessing/gcm-serriated.xlsx
+++ b/Preprocessing/gcm-serriated.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GCParallel\Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7818F0-FAA9-469B-8F89-83EDF17A5C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C693A56-7A61-43F6-82F4-0A8A5B78D8CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gcm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,9 +521,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -876,11 +886,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -927,40 +940,40 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.65</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.83</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.81</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.38</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>-0.1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>-0.2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>-0.18</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>-0.18</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>0.24</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.25</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>0.15</v>
       </c>
     </row>
@@ -968,40 +981,40 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.65</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.54</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.63</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>-0.04</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>-0.12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0.38</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>0.08</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>0.47</v>
       </c>
     </row>
@@ -1009,40 +1022,40 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.83</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.54</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.71</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.66</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>-0.13</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>-0.09</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>-0.09</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.23</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>0.26</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -1050,40 +1063,40 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.81</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.63</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.71</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>-0.06</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>-0.15</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>-0.1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>-0.1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>0.08</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0.17</v>
       </c>
     </row>
@@ -1091,40 +1104,40 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.38</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.66</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.4</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
         <v>0.13</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>-0.05</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>-0.05</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>-0.01</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>0.12</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0.53</v>
       </c>
     </row>
@@ -1132,40 +1145,40 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>-0.1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>-0.04</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>-0.06</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.13</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.76</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>0.95</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0.95</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>-0.09</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>0.16</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>0.18</v>
       </c>
     </row>
@@ -1173,40 +1186,40 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>-0.2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>-0.12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>-0.13</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>-0.15</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.76</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.75</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.75</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>-0.08</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>-0.04</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>-0.08</v>
       </c>
     </row>
@@ -1214,40 +1227,40 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>-0.18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>-0.09</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>-0.1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>-0.05</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.95</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.75</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>-0.06</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>-0.03</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>-0.06</v>
       </c>
     </row>
@@ -1255,40 +1268,40 @@
       <c r="A10">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>-0.18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>-0.09</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-0.1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>-0.05</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.95</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.75</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <v>-0.06</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>-0.03</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>-0.06</v>
       </c>
     </row>
@@ -1296,40 +1309,40 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.38</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.23</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>-0.01</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>-0.09</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>-0.08</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>-0.06</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>-0.06</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
         <v>-0.05</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>-0.1</v>
       </c>
     </row>
@@ -1337,40 +1350,40 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.25</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.08</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.26</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.08</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.12</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.16</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>-0.04</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>-0.03</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>-0.03</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>-0.05</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
         <v>0.27</v>
       </c>
     </row>
@@ -1378,40 +1391,40 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.47</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.17</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.53</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>0.18</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>-0.08</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>-0.06</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>-0.06</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>-0.1</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>0.27</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>1</v>
       </c>
     </row>
